--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem-soln" sheetId="1" r:id="rId1"/>
+    <sheet name="NOTES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -45,13 +46,34 @@
   </si>
   <si>
     <t xml:space="preserve">Create an new array with size of maxium element . Loop over oriiginal array and increase count.  Based on question check whether to consider n or n-1 index. </t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashing </t>
+  </si>
+  <si>
+    <t>Data can be hashed in the form of array /map to store their frequency or other data. For large Data hasing technique such as division hasing can be used. Like mod element with 10 and store in map of &lt;int,LinkedList&gt;  e.g 8-&gt; 8,18,28,38...</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/k-most-occurrent-numbers_625382?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count min max frequency </t>
+  </si>
+  <si>
+    <t>hash as map. Set returun array vals as -1. Then loop over hashmap to get min and max frequency. In first itr set  array min max to first element . Bit tricky but easy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +93,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -107,6 +137,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -390,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +449,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -430,11 +464,59 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>hash as map. Set returun array vals as -1. Then loop over hashmap to get min and max frequency. In first itr set  array min max to first element . Bit tricky but easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection sort </t>
+  </si>
+  <si>
+    <t>goal is with each iteration put smaller element in correct position. example for 5 4 3 2 solution will be 2 4 3 5 ,  2 3 4 5 Remember - find the minimal and swap</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/selection-sort_624469?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/bubble-sort_624380?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +493,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -85,6 +85,19 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/studio/problems/bubble-sort_624380?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t>Insertion sort</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/insertion-sort_624381?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf&amp;leftPanelTab=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep comparing every element with left elements , keep swapping until left is greater
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjcent swapping </t>
   </si>
 </sst>
 </file>
@@ -442,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +531,20 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -525,9 +552,10 @@
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B9" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem-soln" sheetId="1" r:id="rId1"/>
-    <sheet name="NOTES" sheetId="2" r:id="rId2"/>
+    <sheet name="NOTES" sheetId="2" r:id="rId1"/>
+    <sheet name="Hashing and Sorting" sheetId="4" r:id="rId2"/>
+    <sheet name="Array" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -98,6 +99,48 @@
   </si>
   <si>
     <t xml:space="preserve">adjcent swapping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays  Basic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest element in array </t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/largest-element-in-the-array-largest-element-in-the-array_5026279?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t>set max as arr[0] and traverse full to find max</t>
+  </si>
+  <si>
+    <t>Second maxnd second min  (tricky )</t>
+  </si>
+  <si>
+    <t>Check if the array is sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> simply check  a[i] &lt;a[i+1].  Run loop until n-1  </t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/ninja-and-the-sorted-check_6581957?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/ninja-and-the-second-order-elements_6581960?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf</t>
+  </si>
+  <si>
+    <t>set first min and second min as Integer Max. set first max and second max as Integer min. traverse and check if elment is less than second min then check with first min. set accordingley. Refer ur code once.</t>
+  </si>
+  <si>
+    <t>Remove duplicates from Sorted array</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Divide and conquer . Partition function with each iteration should return index of sorted element. All the lefts of this element is smaller than element and rights are larger.</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/quick-sort_5844?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf&amp;leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -455,112 +498,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -593,4 +530,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/studio/problems/quick-sort_5844?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf&amp;leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/submissions/</t>
+  </si>
+  <si>
+    <t>create hashmap of all elments index , find low and high . Run array from low to high and find missing index in map</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -654,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +731,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+    <row r="8" spans="1:3" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -738,8 +756,9 @@
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/DSA Solutions.xlsx
+++ b/DSA Solutions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>create hashmap of all elments index , find low and high . Run array from low to high and find missing index in map</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Divde and conquer then merge</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/merge-sort_5846?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf&amp;leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +657,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -656,9 +676,10 @@
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B11" r:id="rId5"/>
     <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -666,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
